--- a/indicators/template/metadata.xlsx
+++ b/indicators/template/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ECindicators\indicators\rename-folder-after-your-indicator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ecRxiv\indicators\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB1B6FF-7740-4346-90D0-BF7A1E23E821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF325DE-6152-4594-87D1-8AA02B3EFE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="202">
   <si>
     <t>indicatorID</t>
   </si>
@@ -553,9 +553,6 @@
     <t>Version comment</t>
   </si>
   <si>
-    <t>001.001</t>
-  </si>
-  <si>
     <t>Examples: First version; first draft; updated with 2024 data; similar to previsou version, but this time for ecosystem Y.</t>
   </si>
   <si>
@@ -604,12 +601,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>https://github.com/NINAnor/ecRxiv</t>
-  </si>
-  <si>
-    <t>Add the url to the github repo that should be included in the citation</t>
-  </si>
-  <si>
     <t>Add the authors as they will appear in the citation.</t>
   </si>
   <si>
@@ -617,13 +608,93 @@
   </si>
   <si>
     <t>My Great Indicator</t>
+  </si>
+  <si>
+    <t>Beta-versions are numbers incrementally with values below 0. Operational versions can be given the version numbers above 0. Use this terms similar as for software versioning,</t>
+  </si>
+  <si>
+    <t>https://github.com/NINAnor/ecRxiv/tree/main/indicators/</t>
+  </si>
+  <si>
+    <t>https://github.com/NINAnor/ecRxiv/tree/main/indicators/'INDICATOR-ID'</t>
+  </si>
+  <si>
+    <t>Normalised</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Add the url to the github repo that should be included in the citation. Change 'INDICATOR_OD to you actuall indicator ID</t>
+  </si>
+  <si>
+    <t>Indicator wheter the metric has been normliased based on two or more reference levels.</t>
+  </si>
+  <si>
+    <t>Spatial aggregation pathway</t>
+  </si>
+  <si>
+    <r>
+      <t>Use all or some of the following four terms, seperated by hypothens (-), to describe the order of operations during spatial aggregation of the metric. Scale; transform; truncate; Aggregate (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>func.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). Replace </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">func. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">With the aggregation function (e.g. weightede artithmetic mean). If two or more operation are perfored simultaneously you can group them using squre brackets, and seperate them with commas. </t>
+    </r>
+  </si>
+  <si>
+    <t>Scale - [Transform, Truncate] - Aggregate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,6 +728,14 @@
     <font>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -764,9 +843,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -804,7 +883,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -910,7 +989,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1052,7 +1131,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1060,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78FF33B-C37D-487F-A5F6-37AB2202A4CF}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1134,10 +1213,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1202,7 +1280,7 @@
         <v>166</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>168</v>
@@ -1214,12 +1292,14 @@
         <v>169</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1227,47 +1307,73 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>188</v>
+      <c r="C16" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{43A0799D-237F-4ECC-8A5C-DEF79B78D1E3}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{43A0799D-237F-4ECC-8A5C-DEF79B78D1E3}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{C87FDEE0-0D78-471A-9814-193FEC479157}"/>
+    <hyperlink ref="C16" r:id="rId3" xr:uid="{EFAB55D7-8B3D-4466-BCE4-918E14B74D06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36CDCA7B-840E-422F-A06F-01BCE2D2123C}">
           <x14:formula1>
             <xm:f>lookup!$A$2:$A$7</xm:f>
@@ -1298,6 +1404,12 @@
           </x14:formula1>
           <xm:sqref>B12</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D87D40F-3673-40D4-8416-B051FD917097}">
+          <x14:formula1>
+            <xm:f>lookup!$F$2:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B17</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1306,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FBD06A-F7D1-4345-BCDF-E89F4B8A4AD5}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1432,7 @@
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1336,13 +1448,16 @@
       <c r="E1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
         <v>141</v>
@@ -1351,15 +1466,18 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="F2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -1368,15 +1486,18 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
         <v>142</v>
@@ -1385,15 +1506,15 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
         <v>143</v>
@@ -1402,12 +1523,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>144</v>
@@ -1416,12 +1537,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
         <v>145</v>
@@ -1430,9 +1551,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
         <v>146</v>
@@ -1441,9 +1562,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
         <v>147</v>
@@ -1452,9 +1573,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>148</v>
@@ -1463,7 +1584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>149</v>
       </c>
@@ -1471,7 +1592,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -1479,7 +1600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>151</v>
       </c>
@@ -1487,7 +1608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>152</v>
       </c>
@@ -1495,7 +1616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>153</v>
       </c>
@@ -1503,7 +1624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>154</v>
       </c>

--- a/indicators/template/metadata.xlsx
+++ b/indicators/template/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ecRxiv\indicators\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF325DE-6152-4594-87D1-8AA02B3EFE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA55B682-6B25-4E57-AC0A-08059CC419E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="203">
   <si>
     <t>indicatorID</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>Example</t>
-  </si>
-  <si>
-    <t>NO_NDVI_001_002</t>
-  </si>
-  <si>
-    <t>NDVI Forest</t>
   </si>
   <si>
     <t>Norway</t>
@@ -605,9 +599,6 @@
   </si>
   <si>
     <t>authors</t>
-  </si>
-  <si>
-    <t>My Great Indicator</t>
   </si>
   <si>
     <t>Beta-versions are numbers incrementally with values below 0. Operational versions can be given the version numbers above 0. Use this terms similar as for software versioning,</t>
@@ -688,6 +679,18 @@
   </si>
   <si>
     <t>Scale - [Transform, Truncate] - Aggregate</t>
+  </si>
+  <si>
+    <t>NO_NDVI_001</t>
+  </si>
+  <si>
+    <t>See the naming convention</t>
+  </si>
+  <si>
+    <t>NDVI</t>
+  </si>
+  <si>
+    <t>Names should be short</t>
   </si>
 </sst>
 </file>
@@ -809,7 +812,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -820,7 +823,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1142,7 +1144,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1166,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,21 +1174,23 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1194,7 +1198,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1204,7 +1208,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -1214,43 +1218,43 @@
       </c>
       <c r="B6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1261,7 +1265,7 @@
         <v>1901</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1271,96 +1275,96 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1425,7 @@
   <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,704 +1441,704 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/indicators/template/metadata.xlsx
+++ b/indicators/template/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ecRxiv\indicators\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.grainger\Documents\Projects_in_development\ecRxiv\indicators\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA55B682-6B25-4E57-AC0A-08059CC419E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433C71A1-6EC0-4AA9-AEBA-19C7C8982435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="204">
   <si>
     <t>indicatorID</t>
   </si>
@@ -692,12 +692,15 @@
   <si>
     <t>Names should be short</t>
   </si>
+  <si>
+    <t>A2 - Chemical State characteristics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,6 +742,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -812,7 +821,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -823,6 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1143,19 +1153,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78FF33B-C37D-487F-A5F6-37AB2202A4CF}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="3" max="3" width="106.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" customWidth="1"/>
+    <col min="3" max="3" width="106.44140625" customWidth="1"/>
     <col min="4" max="4" width="145" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1169,7 +1179,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1190,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1192,7 +1202,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1202,7 +1212,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1212,7 +1222,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1245,7 +1255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1267,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1269,7 +1279,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1289,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>164</v>
       </c>
@@ -1291,7 +1301,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>167</v>
       </c>
@@ -1305,7 +1315,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>168</v>
       </c>
@@ -1315,7 +1325,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>186</v>
       </c>
@@ -1329,7 +1339,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>184</v>
       </c>
@@ -1343,7 +1353,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>190</v>
       </c>
@@ -1355,7 +1365,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>196</v>
       </c>
@@ -1378,12 +1388,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36CDCA7B-840E-422F-A06F-01BCE2D2123C}">
-          <x14:formula1>
-            <xm:f>lookup!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE43F592-5FB8-438F-A25E-95662C73B5D1}">
           <x14:formula1>
             <xm:f>lookup!$D$2:$D$111</xm:f>
@@ -1414,6 +1418,12 @@
           </x14:formula1>
           <xm:sqref>B17</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36CDCA7B-840E-422F-A06F-01BCE2D2123C}">
+          <x14:formula1>
+            <xm:f>lookup!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1424,19 +1434,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FBD06A-F7D1-4345-BCDF-E89F4B8A4AD5}">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1456,7 +1466,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1476,9 +1486,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>171</v>
@@ -1496,9 +1506,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>172</v>
@@ -1513,9 +1523,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>173</v>
@@ -1527,9 +1537,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>174</v>
@@ -1541,9 +1551,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>175</v>
@@ -1555,7 +1565,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" t="s">
         <v>176</v>
       </c>
@@ -1566,7 +1579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>177</v>
       </c>
@@ -1577,7 +1590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>178</v>
       </c>
@@ -1588,7 +1601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>147</v>
       </c>
@@ -1596,7 +1609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>148</v>
       </c>
@@ -1604,7 +1617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>149</v>
       </c>
@@ -1612,7 +1625,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>150</v>
       </c>
@@ -1620,7 +1633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>151</v>
       </c>
@@ -1628,7 +1641,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>152</v>
       </c>
@@ -1636,7 +1649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>153</v>
       </c>
@@ -1644,7 +1657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>154</v>
       </c>
@@ -1652,7 +1665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>155</v>
       </c>
@@ -1660,7 +1673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>156</v>
       </c>
@@ -1668,7 +1681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>157</v>
       </c>
@@ -1676,7 +1689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>158</v>
       </c>
@@ -1684,7 +1697,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>159</v>
       </c>
@@ -1692,7 +1705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -1700,7 +1713,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>161</v>
       </c>
@@ -1708,7 +1721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>162</v>
       </c>
@@ -1716,432 +1729,433 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>